--- a/data/raw/Store_Dim.xlsx
+++ b/data/raw/Store_Dim.xlsx
@@ -475,19 +475,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Store_1</t>
+          <t>London - Store 1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Online</t>
+          <t>Physical</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>42323</v>
+        <v>42109</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -501,23 +501,23 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Store_2</t>
+          <t>Delhi - Store 2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Physical</t>
+          <t>Online</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>42323</v>
+        <v>40429</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Large</t>
+          <t>Medium</t>
         </is>
       </c>
     </row>
@@ -527,23 +527,23 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Store_3</t>
+          <t>London - Store 3</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Physical</t>
+          <t>Online</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>42323</v>
+        <v>42788</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Small</t>
+          <t>Large</t>
         </is>
       </c>
     </row>
@@ -553,19 +553,19 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Store_4</t>
+          <t>Munich - Store 4</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Physical</t>
+          <t>Online</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>42323</v>
+        <v>44738</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -579,7 +579,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Store_5</t>
+          <t>Toronto - Store 5</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -588,14 +588,14 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>42323</v>
+        <v>40901</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Large</t>
+          <t>Small</t>
         </is>
       </c>
     </row>
@@ -605,19 +605,19 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Store_6</t>
+          <t>Chicago - Store 6</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Online</t>
+          <t>Physical</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>42323</v>
+        <v>40843</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -631,7 +631,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Store_7</t>
+          <t>Delhi - Store 7</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -640,14 +640,14 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>42323</v>
+        <v>44794</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Small</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Store_8</t>
+          <t>Sydney - Store 8</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -666,14 +666,14 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>42323</v>
+        <v>41578</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Small</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Store_9</t>
+          <t>Hyderabad - Store 9</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -692,14 +692,14 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>42323</v>
+        <v>42214</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Small</t>
+          <t>Large</t>
         </is>
       </c>
     </row>
@@ -709,7 +709,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Store_10</t>
+          <t>Sydney - Store 10</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>42323</v>
+        <v>43773</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -735,19 +735,19 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Store_11</t>
+          <t>Sydney - Store 11</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Online</t>
+          <t>Physical</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>42323</v>
+        <v>43949</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -761,23 +761,23 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Store_12</t>
+          <t>New York - Store 12</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Physical</t>
+          <t>Online</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>42323</v>
+        <v>42699</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Large</t>
+          <t>Small</t>
         </is>
       </c>
     </row>
@@ -787,7 +787,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Store_13</t>
+          <t>Sydney - Store 13</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -796,10 +796,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>42323</v>
+        <v>42798</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -813,7 +813,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Store_14</t>
+          <t>Mumbai - Store 14</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -825,11 +825,11 @@
         <v>2</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>42323</v>
+        <v>44794</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Large</t>
+          <t>Medium</t>
         </is>
       </c>
     </row>
@@ -839,7 +839,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Store_15</t>
+          <t>San Francisco - Store 15</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -848,14 +848,14 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>42323</v>
+        <v>41168</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Small</t>
+          <t>Medium</t>
         </is>
       </c>
     </row>
@@ -865,7 +865,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Store_16</t>
+          <t>Melbourne - Store 16</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -877,11 +877,11 @@
         <v>5</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>42323</v>
+        <v>44393</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Large</t>
+          <t>Small</t>
         </is>
       </c>
     </row>
@@ -891,19 +891,19 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Store_17</t>
+          <t>Sydney - Store 17</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Physical</t>
+          <t>Online</t>
         </is>
       </c>
       <c r="D18" t="n">
         <v>3</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>42323</v>
+        <v>45000</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -917,7 +917,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Store_18</t>
+          <t>London - Store 18</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -929,11 +929,11 @@
         <v>3</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>42323</v>
+        <v>43422</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Small</t>
         </is>
       </c>
     </row>
@@ -943,19 +943,19 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Store_19</t>
+          <t>New York - Store 19</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Physical</t>
+          <t>Online</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>42323</v>
+        <v>41724</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -969,19 +969,19 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Store_20</t>
+          <t>Vancouver - Store 20</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Physical</t>
+          <t>Online</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>42323</v>
+        <v>41603</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -995,7 +995,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Store_21</t>
+          <t>Chennai - Store 21</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1004,14 +1004,14 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>42323</v>
+        <v>43410</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Small</t>
+          <t>Medium</t>
         </is>
       </c>
     </row>
@@ -1021,23 +1021,23 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Store_22</t>
+          <t>San Francisco - Store 22</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Physical</t>
+          <t>Online</t>
         </is>
       </c>
       <c r="D23" t="n">
         <v>4</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>42323</v>
+        <v>42180</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Large</t>
+          <t>Small</t>
         </is>
       </c>
     </row>
@@ -1047,7 +1047,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Store_23</t>
+          <t>Manchester - Store 23</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1056,14 +1056,14 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>42323</v>
+        <v>44091</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Small</t>
+          <t>Medium</t>
         </is>
       </c>
     </row>
@@ -1073,23 +1073,23 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Store_24</t>
+          <t>Chennai - Store 24</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Physical</t>
+          <t>Online</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>42323</v>
+        <v>42958</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Small</t>
         </is>
       </c>
     </row>
@@ -1099,23 +1099,23 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Store_25</t>
+          <t>Hyderabad - Store 25</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Online</t>
+          <t>Physical</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>42323</v>
+        <v>44359</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Large</t>
+          <t>Medium</t>
         </is>
       </c>
     </row>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Store_26</t>
+          <t>San Francisco - Store 26</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1137,7 +1137,7 @@
         <v>1</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>42323</v>
+        <v>42935</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1151,7 +1151,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Store_27</t>
+          <t>Bangalore - Store 27</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1163,11 +1163,11 @@
         <v>5</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>42323</v>
+        <v>43797</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Large</t>
+          <t>Small</t>
         </is>
       </c>
     </row>
@@ -1177,23 +1177,23 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Store_28</t>
+          <t>Vancouver - Store 28</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Online</t>
+          <t>Physical</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>42323</v>
+        <v>41886</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Large</t>
+          <t>Medium</t>
         </is>
       </c>
     </row>
@@ -1203,7 +1203,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Store_29</t>
+          <t>Mumbai - Store 29</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1212,10 +1212,10 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>42323</v>
+        <v>42976</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1229,19 +1229,19 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Store_30</t>
+          <t>Vancouver - Store 30</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Physical</t>
+          <t>Online</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>42323</v>
+        <v>43326</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1255,7 +1255,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Store_31</t>
+          <t>London - Store 31</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1264,10 +1264,10 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>42323</v>
+        <v>41611</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Store_32</t>
+          <t>Munich - Store 32</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1290,14 +1290,14 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>42323</v>
+        <v>40349</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Large</t>
+          <t>Small</t>
         </is>
       </c>
     </row>
@@ -1307,23 +1307,23 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Store_33</t>
+          <t>San Francisco - Store 33</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Physical</t>
+          <t>Online</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>42323</v>
+        <v>42131</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Small</t>
+          <t>Medium</t>
         </is>
       </c>
     </row>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Store_34</t>
+          <t>New York - Store 34</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1342,14 +1342,14 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>42323</v>
+        <v>40682</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Small</t>
+          <t>Medium</t>
         </is>
       </c>
     </row>
@@ -1359,7 +1359,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Store_35</t>
+          <t>Melbourne - Store 35</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1371,11 +1371,11 @@
         <v>3</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>42323</v>
+        <v>44088</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Small</t>
+          <t>Medium</t>
         </is>
       </c>
     </row>
@@ -1385,23 +1385,23 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Store_36</t>
+          <t>San Francisco - Store 36</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Online</t>
+          <t>Physical</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>42323</v>
+        <v>41836</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Small</t>
+          <t>Medium</t>
         </is>
       </c>
     </row>
@@ -1411,7 +1411,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Store_37</t>
+          <t>Vancouver - Store 37</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1420,14 +1420,14 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>42323</v>
+        <v>41857</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Large</t>
+          <t>Small</t>
         </is>
       </c>
     </row>
@@ -1437,23 +1437,23 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Store_38</t>
+          <t>Mumbai - Store 38</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Physical</t>
+          <t>Online</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>42323</v>
+        <v>44768</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Large</t>
+          <t>Small</t>
         </is>
       </c>
     </row>
@@ -1463,19 +1463,19 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Store_39</t>
+          <t>Chennai - Store 39</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Physical</t>
+          <t>Online</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>42323</v>
+        <v>43310</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1489,23 +1489,23 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Store_40</t>
+          <t>Melbourne - Store 40</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Physical</t>
+          <t>Online</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>42323</v>
+        <v>41691</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Large</t>
+          <t>Small</t>
         </is>
       </c>
     </row>
@@ -1515,7 +1515,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Store_41</t>
+          <t>Sydney - Store 41</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1524,14 +1524,14 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>42323</v>
+        <v>40719</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Small</t>
         </is>
       </c>
     </row>
@@ -1541,7 +1541,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Store_42</t>
+          <t>Hyderabad - Store 42</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1550,14 +1550,14 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>42323</v>
+        <v>40890</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Large</t>
+          <t>Medium</t>
         </is>
       </c>
     </row>
@@ -1567,23 +1567,23 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Store_43</t>
+          <t>Berlin - Store 43</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Online</t>
+          <t>Physical</t>
         </is>
       </c>
       <c r="D44" t="n">
         <v>1</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>42323</v>
+        <v>44546</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Small</t>
         </is>
       </c>
     </row>
@@ -1593,7 +1593,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Store_44</t>
+          <t>Berlin - Store 44</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1602,14 +1602,14 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>42323</v>
+        <v>40814</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Small</t>
+          <t>Medium</t>
         </is>
       </c>
     </row>
@@ -1619,7 +1619,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Store_45</t>
+          <t>Melbourne - Store 45</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1628,14 +1628,14 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>42323</v>
+        <v>42039</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Small</t>
+          <t>Medium</t>
         </is>
       </c>
     </row>
@@ -1645,23 +1645,23 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Store_46</t>
+          <t>Melbourne - Store 46</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Physical</t>
+          <t>Online</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>42323</v>
+        <v>40416</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Large</t>
+          <t>Medium</t>
         </is>
       </c>
     </row>
@@ -1671,7 +1671,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Store_47</t>
+          <t>Delhi - Store 47</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1680,14 +1680,14 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>42323</v>
+        <v>41440</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Small</t>
+          <t>Large</t>
         </is>
       </c>
     </row>
@@ -1697,7 +1697,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Store_48</t>
+          <t>Hyderabad - Store 48</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1706,10 +1706,10 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>42323</v>
+        <v>43557</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Store_49</t>
+          <t>Bangalore - Store 49</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1735,7 +1735,7 @@
         <v>5</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>42323</v>
+        <v>41690</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -1749,7 +1749,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Store_50</t>
+          <t>Chicago - Store 50</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1758,10 +1758,10 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>42323</v>
+        <v>43632</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Store_51</t>
+          <t>Bangalore - Store 51</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1784,14 +1784,14 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E52" s="2" t="n">
-        <v>42323</v>
+        <v>43720</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Small</t>
+          <t>Large</t>
         </is>
       </c>
     </row>
@@ -1801,7 +1801,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Store_52</t>
+          <t>Bangalore - Store 52</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1810,14 +1810,14 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E53" s="2" t="n">
-        <v>42323</v>
+        <v>41683</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Small</t>
+          <t>Medium</t>
         </is>
       </c>
     </row>
@@ -1827,7 +1827,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Store_53</t>
+          <t>San Francisco - Store 53</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1836,10 +1836,10 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E54" s="2" t="n">
-        <v>42323</v>
+        <v>43907</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -1853,19 +1853,19 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Store_54</t>
+          <t>San Francisco - Store 54</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Online</t>
+          <t>Physical</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E55" s="2" t="n">
-        <v>42323</v>
+        <v>45081</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Store_55</t>
+          <t>Munich - Store 55</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1888,14 +1888,14 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E56" s="2" t="n">
-        <v>42323</v>
+        <v>40965</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Large</t>
+          <t>Small</t>
         </is>
       </c>
     </row>
@@ -1905,7 +1905,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Store_56</t>
+          <t>Toronto - Store 56</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1914,14 +1914,14 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E57" s="2" t="n">
-        <v>42323</v>
+        <v>44609</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Large</t>
+          <t>Small</t>
         </is>
       </c>
     </row>
@@ -1931,19 +1931,19 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Store_57</t>
+          <t>Mumbai - Store 57</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Online</t>
+          <t>Physical</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E58" s="2" t="n">
-        <v>42323</v>
+        <v>44301</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -1957,7 +1957,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Store_58</t>
+          <t>San Francisco - Store 58</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1966,14 +1966,14 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E59" s="2" t="n">
-        <v>42323</v>
+        <v>41718</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Large</t>
         </is>
       </c>
     </row>
@@ -1983,7 +1983,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Store_59</t>
+          <t>San Francisco - Store 59</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1995,11 +1995,11 @@
         <v>2</v>
       </c>
       <c r="E60" s="2" t="n">
-        <v>42323</v>
+        <v>43911</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Small</t>
         </is>
       </c>
     </row>
@@ -2009,7 +2009,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Store_60</t>
+          <t>Mumbai - Store 60</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2018,14 +2018,14 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E61" s="2" t="n">
-        <v>42323</v>
+        <v>42337</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Large</t>
+          <t>Medium</t>
         </is>
       </c>
     </row>
@@ -2035,23 +2035,23 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Store_61</t>
+          <t>Berlin - Store 61</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Physical</t>
+          <t>Online</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E62" s="2" t="n">
-        <v>42323</v>
+        <v>40235</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Large</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Store_62</t>
+          <t>Berlin - Store 62</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2070,14 +2070,14 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E63" s="2" t="n">
-        <v>42323</v>
+        <v>44909</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Small</t>
+          <t>Medium</t>
         </is>
       </c>
     </row>
@@ -2087,7 +2087,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Store_63</t>
+          <t>Delhi - Store 63</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2096,14 +2096,14 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E64" s="2" t="n">
-        <v>42323</v>
+        <v>42367</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Small</t>
         </is>
       </c>
     </row>
@@ -2113,23 +2113,23 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Store_64</t>
+          <t>Munich - Store 64</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Online</t>
+          <t>Physical</t>
         </is>
       </c>
       <c r="D65" t="n">
         <v>2</v>
       </c>
       <c r="E65" s="2" t="n">
-        <v>42323</v>
+        <v>43968</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Large</t>
+          <t>Small</t>
         </is>
       </c>
     </row>
@@ -2139,7 +2139,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Store_65</t>
+          <t>Delhi - Store 65</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2151,11 +2151,11 @@
         <v>3</v>
       </c>
       <c r="E66" s="2" t="n">
-        <v>42323</v>
+        <v>44229</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Small</t>
+          <t>Medium</t>
         </is>
       </c>
     </row>
@@ -2165,7 +2165,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Store_66</t>
+          <t>Melbourne - Store 66</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2174,14 +2174,14 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E67" s="2" t="n">
-        <v>42323</v>
+        <v>42505</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Small</t>
+          <t>Medium</t>
         </is>
       </c>
     </row>
@@ -2191,23 +2191,23 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Store_67</t>
+          <t>San Francisco - Store 67</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Online</t>
+          <t>Physical</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E68" s="2" t="n">
-        <v>42323</v>
+        <v>42974</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Large</t>
+          <t>Small</t>
         </is>
       </c>
     </row>
@@ -2217,7 +2217,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Store_68</t>
+          <t>Chicago - Store 68</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2226,14 +2226,14 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E69" s="2" t="n">
-        <v>42323</v>
+        <v>40543</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Large</t>
+          <t>Medium</t>
         </is>
       </c>
     </row>
@@ -2243,7 +2243,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Store_69</t>
+          <t>London - Store 69</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2252,10 +2252,10 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E70" s="2" t="n">
-        <v>42323</v>
+        <v>40858</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -2269,7 +2269,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Store_70</t>
+          <t>Bangalore - Store 70</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2278,14 +2278,14 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E71" s="2" t="n">
-        <v>42323</v>
+        <v>45148</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Small</t>
+          <t>Medium</t>
         </is>
       </c>
     </row>
@@ -2295,23 +2295,23 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Store_71</t>
+          <t>Chennai - Store 71</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Physical</t>
+          <t>Online</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E72" s="2" t="n">
-        <v>42323</v>
+        <v>44546</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Small</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Store_72</t>
+          <t>Delhi - Store 72</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2330,10 +2330,10 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E73" s="2" t="n">
-        <v>42323</v>
+        <v>41013</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -2347,7 +2347,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Store_73</t>
+          <t>New York - Store 73</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2356,14 +2356,14 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E74" s="2" t="n">
-        <v>42323</v>
+        <v>43197</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Large</t>
+          <t>Small</t>
         </is>
       </c>
     </row>
@@ -2373,7 +2373,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Store_74</t>
+          <t>Mumbai - Store 74</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2382,14 +2382,14 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E75" s="2" t="n">
-        <v>42323</v>
+        <v>42931</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Small</t>
+          <t>Medium</t>
         </is>
       </c>
     </row>
@@ -2399,7 +2399,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Store_75</t>
+          <t>Berlin - Store 75</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2408,10 +2408,10 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E76" s="2" t="n">
-        <v>42323</v>
+        <v>41752</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Store_76</t>
+          <t>Bangalore - Store 76</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2434,10 +2434,10 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E77" s="2" t="n">
-        <v>42323</v>
+        <v>40360</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -2451,7 +2451,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Store_77</t>
+          <t>Berlin - Store 77</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2463,11 +2463,11 @@
         <v>2</v>
       </c>
       <c r="E78" s="2" t="n">
-        <v>42323</v>
+        <v>40189</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Small</t>
         </is>
       </c>
     </row>
@@ -2477,23 +2477,23 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Store_78</t>
+          <t>Toronto - Store 78</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Online</t>
+          <t>Physical</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E79" s="2" t="n">
-        <v>42323</v>
+        <v>42893</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Small</t>
+          <t>Large</t>
         </is>
       </c>
     </row>
@@ -2503,7 +2503,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Store_79</t>
+          <t>Delhi - Store 79</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2512,10 +2512,10 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E80" s="2" t="n">
-        <v>42323</v>
+        <v>40196</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Store_80</t>
+          <t>San Francisco - Store 80</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2538,14 +2538,14 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E81" s="2" t="n">
-        <v>42323</v>
+        <v>44741</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Small</t>
+          <t>Medium</t>
         </is>
       </c>
     </row>
@@ -2555,7 +2555,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Store_81</t>
+          <t>Melbourne - Store 81</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2564,14 +2564,14 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E82" s="2" t="n">
-        <v>42323</v>
+        <v>41976</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Small</t>
         </is>
       </c>
     </row>
@@ -2581,23 +2581,23 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Store_82</t>
+          <t>Mumbai - Store 82</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Physical</t>
+          <t>Online</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E83" s="2" t="n">
-        <v>42323</v>
+        <v>41480</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Large</t>
         </is>
       </c>
     </row>
@@ -2607,7 +2607,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Store_83</t>
+          <t>Chicago - Store 83</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2619,11 +2619,11 @@
         <v>1</v>
       </c>
       <c r="E84" s="2" t="n">
-        <v>42323</v>
+        <v>41247</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Small</t>
+          <t>Medium</t>
         </is>
       </c>
     </row>
@@ -2633,7 +2633,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Store_84</t>
+          <t>Melbourne - Store 84</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2642,14 +2642,14 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E85" s="2" t="n">
-        <v>42323</v>
+        <v>40195</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Large</t>
+          <t>Medium</t>
         </is>
       </c>
     </row>
@@ -2659,7 +2659,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Store_85</t>
+          <t>Munich - Store 85</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2668,14 +2668,14 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E86" s="2" t="n">
-        <v>42323</v>
+        <v>42906</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Large</t>
+          <t>Medium</t>
         </is>
       </c>
     </row>
@@ -2685,23 +2685,23 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Store_86</t>
+          <t>Sydney - Store 86</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Physical</t>
+          <t>Online</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E87" s="2" t="n">
-        <v>42323</v>
+        <v>45001</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Small</t>
+          <t>Medium</t>
         </is>
       </c>
     </row>
@@ -2711,7 +2711,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Store_87</t>
+          <t>Vancouver - Store 87</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2723,11 +2723,11 @@
         <v>1</v>
       </c>
       <c r="E88" s="2" t="n">
-        <v>42323</v>
+        <v>44106</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Small</t>
+          <t>Large</t>
         </is>
       </c>
     </row>
@@ -2737,7 +2737,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Store_88</t>
+          <t>Vancouver - Store 88</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2746,14 +2746,14 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E89" s="2" t="n">
-        <v>42323</v>
+        <v>40884</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Large</t>
+          <t>Small</t>
         </is>
       </c>
     </row>
@@ -2763,7 +2763,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Store_89</t>
+          <t>Chicago - Store 89</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2772,14 +2772,14 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E90" s="2" t="n">
-        <v>42323</v>
+        <v>42016</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Small</t>
         </is>
       </c>
     </row>
@@ -2789,23 +2789,23 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Store_90</t>
+          <t>Munich - Store 90</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Online</t>
+          <t>Physical</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E91" s="2" t="n">
-        <v>42323</v>
+        <v>42149</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Large</t>
+          <t>Medium</t>
         </is>
       </c>
     </row>
@@ -2815,23 +2815,23 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Store_91</t>
+          <t>London - Store 91</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Physical</t>
+          <t>Online</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E92" s="2" t="n">
-        <v>42323</v>
+        <v>43738</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Large</t>
+          <t>Medium</t>
         </is>
       </c>
     </row>
@@ -2841,7 +2841,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Store_92</t>
+          <t>Hyderabad - Store 92</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -2850,14 +2850,14 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E93" s="2" t="n">
-        <v>42323</v>
+        <v>41680</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Large</t>
+          <t>Small</t>
         </is>
       </c>
     </row>
@@ -2867,7 +2867,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Store_93</t>
+          <t>Sydney - Store 93</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2876,14 +2876,14 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E94" s="2" t="n">
-        <v>42323</v>
+        <v>44264</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Large</t>
         </is>
       </c>
     </row>
@@ -2893,7 +2893,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Store_94</t>
+          <t>Melbourne - Store 94</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2902,14 +2902,14 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E95" s="2" t="n">
-        <v>42323</v>
+        <v>44710</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Large</t>
+          <t>Medium</t>
         </is>
       </c>
     </row>
@@ -2919,7 +2919,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Store_95</t>
+          <t>Delhi - Store 95</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2928,14 +2928,14 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E96" s="2" t="n">
-        <v>42323</v>
+        <v>41260</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Small</t>
+          <t>Medium</t>
         </is>
       </c>
     </row>
@@ -2945,7 +2945,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Store_96</t>
+          <t>Mumbai - Store 96</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2954,14 +2954,14 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E97" s="2" t="n">
-        <v>42323</v>
+        <v>41582</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Small</t>
+          <t>Medium</t>
         </is>
       </c>
     </row>
@@ -2971,7 +2971,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Store_97</t>
+          <t>Sydney - Store 97</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2980,14 +2980,14 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E98" s="2" t="n">
-        <v>42323</v>
+        <v>44856</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Large</t>
         </is>
       </c>
     </row>
@@ -2997,7 +2997,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Store_98</t>
+          <t>Delhi - Store 98</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3009,11 +3009,11 @@
         <v>5</v>
       </c>
       <c r="E99" s="2" t="n">
-        <v>42323</v>
+        <v>40716</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Small</t>
+          <t>Large</t>
         </is>
       </c>
     </row>
@@ -3023,23 +3023,23 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Store_99</t>
+          <t>New York - Store 99</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Online</t>
+          <t>Physical</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E100" s="2" t="n">
-        <v>42323</v>
+        <v>42041</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Small</t>
         </is>
       </c>
     </row>
@@ -3049,7 +3049,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Store_100</t>
+          <t>London - Store 100</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3058,14 +3058,14 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E101" s="2" t="n">
-        <v>42323</v>
+        <v>45283</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Large</t>
+          <t>Medium</t>
         </is>
       </c>
     </row>
@@ -3075,23 +3075,23 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Store_101</t>
+          <t>Sydney - Store 101</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Physical</t>
+          <t>Online</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E102" s="2" t="n">
-        <v>42323</v>
+        <v>40699</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Large</t>
+          <t>Medium</t>
         </is>
       </c>
     </row>
@@ -3101,7 +3101,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Store_102</t>
+          <t>Vancouver - Store 102</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3110,14 +3110,14 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E103" s="2" t="n">
-        <v>42323</v>
+        <v>44842</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Small</t>
+          <t>Medium</t>
         </is>
       </c>
     </row>
@@ -3127,7 +3127,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Store_103</t>
+          <t>Mumbai - Store 103</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3136,10 +3136,10 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E104" s="2" t="n">
-        <v>42323</v>
+        <v>41987</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -3153,7 +3153,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Store_104</t>
+          <t>Chennai - Store 104</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3162,14 +3162,14 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E105" s="2" t="n">
-        <v>42323</v>
+        <v>43424</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Large</t>
+          <t>Small</t>
         </is>
       </c>
     </row>
@@ -3179,7 +3179,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Store_105</t>
+          <t>Manchester - Store 105</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3191,11 +3191,11 @@
         <v>5</v>
       </c>
       <c r="E106" s="2" t="n">
-        <v>42323</v>
+        <v>43729</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Large</t>
+          <t>Medium</t>
         </is>
       </c>
     </row>
@@ -3205,23 +3205,23 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Store_106</t>
+          <t>Melbourne - Store 106</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Online</t>
+          <t>Physical</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E107" s="2" t="n">
-        <v>42323</v>
+        <v>43238</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Small</t>
+          <t>Medium</t>
         </is>
       </c>
     </row>
@@ -3231,19 +3231,19 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Store_107</t>
+          <t>Delhi - Store 107</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Physical</t>
+          <t>Online</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E108" s="2" t="n">
-        <v>42323</v>
+        <v>44950</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -3257,23 +3257,23 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Store_108</t>
+          <t>Chicago - Store 108</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Online</t>
+          <t>Physical</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E109" s="2" t="n">
-        <v>42323</v>
+        <v>44936</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Large</t>
         </is>
       </c>
     </row>
@@ -3283,23 +3283,23 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Store_109</t>
+          <t>Melbourne - Store 109</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Physical</t>
+          <t>Online</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E110" s="2" t="n">
-        <v>42323</v>
+        <v>41816</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Small</t>
         </is>
       </c>
     </row>
@@ -3309,7 +3309,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Store_110</t>
+          <t>London - Store 110</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -3318,14 +3318,14 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E111" s="2" t="n">
-        <v>42323</v>
+        <v>40924</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Small</t>
+          <t>Large</t>
         </is>
       </c>
     </row>
@@ -3335,7 +3335,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Store_111</t>
+          <t>Delhi - Store 111</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -3344,14 +3344,14 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E112" s="2" t="n">
-        <v>42323</v>
+        <v>45104</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Small</t>
         </is>
       </c>
     </row>
@@ -3361,7 +3361,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Store_112</t>
+          <t>Delhi - Store 112</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -3370,10 +3370,10 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E113" s="2" t="n">
-        <v>42323</v>
+        <v>40452</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
@@ -3387,7 +3387,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Store_113</t>
+          <t>Munich - Store 113</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -3396,10 +3396,10 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E114" s="2" t="n">
-        <v>42323</v>
+        <v>44363</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -3413,19 +3413,19 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Store_114</t>
+          <t>San Francisco - Store 114</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Physical</t>
+          <t>Online</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E115" s="2" t="n">
-        <v>42323</v>
+        <v>40938</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -3439,7 +3439,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Store_115</t>
+          <t>London - Store 115</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -3448,14 +3448,14 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E116" s="2" t="n">
-        <v>42323</v>
+        <v>42616</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Large</t>
+          <t>Medium</t>
         </is>
       </c>
     </row>
@@ -3465,7 +3465,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Store_116</t>
+          <t>Munich - Store 116</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -3474,14 +3474,14 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E117" s="2" t="n">
-        <v>42323</v>
+        <v>41274</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Large</t>
+          <t>Small</t>
         </is>
       </c>
     </row>
@@ -3491,23 +3491,23 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Store_117</t>
+          <t>Delhi - Store 117</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Physical</t>
+          <t>Online</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E118" s="2" t="n">
-        <v>42323</v>
+        <v>45276</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Large</t>
+          <t>Medium</t>
         </is>
       </c>
     </row>
@@ -3517,7 +3517,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Store_118</t>
+          <t>Vancouver - Store 118</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -3526,14 +3526,14 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E119" s="2" t="n">
-        <v>42323</v>
+        <v>44946</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Small</t>
+          <t>Medium</t>
         </is>
       </c>
     </row>
@@ -3543,7 +3543,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Store_119</t>
+          <t>Sydney - Store 119</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -3552,10 +3552,10 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E120" s="2" t="n">
-        <v>42323</v>
+        <v>40253</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
@@ -3569,19 +3569,19 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Store_120</t>
+          <t>Bangalore - Store 120</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Online</t>
+          <t>Physical</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E121" s="2" t="n">
-        <v>42323</v>
+        <v>42208</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -3595,23 +3595,23 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Store_121</t>
+          <t>Vancouver - Store 121</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Online</t>
+          <t>Physical</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E122" s="2" t="n">
-        <v>42323</v>
+        <v>40397</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Small</t>
+          <t>Medium</t>
         </is>
       </c>
     </row>
@@ -3621,7 +3621,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Store_122</t>
+          <t>Vancouver - Store 122</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -3630,14 +3630,14 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E123" s="2" t="n">
-        <v>42323</v>
+        <v>44643</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Small</t>
         </is>
       </c>
     </row>
@@ -3647,7 +3647,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Store_123</t>
+          <t>Sydney - Store 123</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -3656,10 +3656,10 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E124" s="2" t="n">
-        <v>42323</v>
+        <v>42211</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
@@ -3673,23 +3673,23 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Store_124</t>
+          <t>Chennai - Store 124</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Online</t>
+          <t>Physical</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E125" s="2" t="n">
-        <v>42323</v>
+        <v>40810</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Small</t>
         </is>
       </c>
     </row>
@@ -3699,7 +3699,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Store_125</t>
+          <t>Berlin - Store 125</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -3708,14 +3708,14 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E126" s="2" t="n">
-        <v>42323</v>
+        <v>44255</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Large</t>
+          <t>Small</t>
         </is>
       </c>
     </row>
@@ -3725,7 +3725,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Store_126</t>
+          <t>Hyderabad - Store 126</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -3734,14 +3734,14 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E127" s="2" t="n">
-        <v>42323</v>
+        <v>42497</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Large</t>
+          <t>Medium</t>
         </is>
       </c>
     </row>
@@ -3751,7 +3751,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Store_127</t>
+          <t>Delhi - Store 127</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -3763,11 +3763,11 @@
         <v>5</v>
       </c>
       <c r="E128" s="2" t="n">
-        <v>42323</v>
+        <v>44602</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Small</t>
+          <t>Medium</t>
         </is>
       </c>
     </row>
@@ -3777,7 +3777,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Store_128</t>
+          <t>Berlin - Store 128</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -3786,10 +3786,10 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E129" s="2" t="n">
-        <v>42323</v>
+        <v>43869</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -3803,19 +3803,19 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Store_129</t>
+          <t>Delhi - Store 129</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Physical</t>
+          <t>Online</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E130" s="2" t="n">
-        <v>42323</v>
+        <v>41940</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
@@ -3829,7 +3829,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Store_130</t>
+          <t>New York - Store 130</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -3838,14 +3838,14 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E131" s="2" t="n">
-        <v>42323</v>
+        <v>40654</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Small</t>
+          <t>Medium</t>
         </is>
       </c>
     </row>
@@ -3855,19 +3855,19 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Store_131</t>
+          <t>Vancouver - Store 131</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Physical</t>
+          <t>Online</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E132" s="2" t="n">
-        <v>42323</v>
+        <v>45271</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -3881,7 +3881,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Store_132</t>
+          <t>Chicago - Store 132</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -3893,11 +3893,11 @@
         <v>1</v>
       </c>
       <c r="E133" s="2" t="n">
-        <v>42323</v>
+        <v>40881</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Large</t>
         </is>
       </c>
     </row>
@@ -3907,7 +3907,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Store_133</t>
+          <t>Toronto - Store 133</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -3916,10 +3916,10 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E134" s="2" t="n">
-        <v>42323</v>
+        <v>42278</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Store_134</t>
+          <t>Melbourne - Store 134</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -3942,14 +3942,14 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E135" s="2" t="n">
-        <v>42323</v>
+        <v>42075</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Small</t>
         </is>
       </c>
     </row>
@@ -3959,7 +3959,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Store_135</t>
+          <t>Melbourne - Store 135</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -3968,10 +3968,10 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E136" s="2" t="n">
-        <v>42323</v>
+        <v>41917</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
@@ -3985,19 +3985,19 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Store_136</t>
+          <t>London - Store 136</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Physical</t>
+          <t>Online</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E137" s="2" t="n">
-        <v>42323</v>
+        <v>41509</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
@@ -4011,23 +4011,23 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Store_137</t>
+          <t>Chicago - Store 137</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Physical</t>
+          <t>Online</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E138" s="2" t="n">
-        <v>42323</v>
+        <v>43288</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Large</t>
         </is>
       </c>
     </row>
@@ -4037,7 +4037,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Store_138</t>
+          <t>Sydney - Store 138</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -4046,14 +4046,14 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E139" s="2" t="n">
-        <v>42323</v>
+        <v>41083</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Small</t>
         </is>
       </c>
     </row>
@@ -4063,23 +4063,23 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Store_139</t>
+          <t>San Francisco - Store 139</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Physical</t>
+          <t>Online</t>
         </is>
       </c>
       <c r="D140" t="n">
         <v>1</v>
       </c>
       <c r="E140" s="2" t="n">
-        <v>42323</v>
+        <v>43669</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Small</t>
         </is>
       </c>
     </row>
@@ -4089,7 +4089,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Store_140</t>
+          <t>Toronto - Store 140</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -4098,10 +4098,10 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E141" s="2" t="n">
-        <v>42323</v>
+        <v>45133</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Store_141</t>
+          <t>Mumbai - Store 141</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -4124,10 +4124,10 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E142" s="2" t="n">
-        <v>42323</v>
+        <v>44180</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
@@ -4141,23 +4141,23 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Store_142</t>
+          <t>Delhi - Store 142</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Physical</t>
+          <t>Online</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E143" s="2" t="n">
-        <v>42323</v>
+        <v>40291</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Large</t>
+          <t>Medium</t>
         </is>
       </c>
     </row>
@@ -4167,7 +4167,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Store_143</t>
+          <t>Delhi - Store 143</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -4176,10 +4176,10 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E144" s="2" t="n">
-        <v>42323</v>
+        <v>42304</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
@@ -4193,19 +4193,19 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Store_144</t>
+          <t>Vancouver - Store 144</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Online</t>
+          <t>Physical</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E145" s="2" t="n">
-        <v>42323</v>
+        <v>42218</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
@@ -4219,23 +4219,23 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Store_145</t>
+          <t>Bangalore - Store 145</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Physical</t>
+          <t>Online</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E146" s="2" t="n">
-        <v>42323</v>
+        <v>43563</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Large</t>
+          <t>Medium</t>
         </is>
       </c>
     </row>
@@ -4245,7 +4245,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Store_146</t>
+          <t>London - Store 146</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -4254,10 +4254,10 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E147" s="2" t="n">
-        <v>42323</v>
+        <v>40203</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
@@ -4271,7 +4271,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Store_147</t>
+          <t>Chicago - Store 147</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -4280,14 +4280,14 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E148" s="2" t="n">
-        <v>42323</v>
+        <v>42610</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Large</t>
+          <t>Medium</t>
         </is>
       </c>
     </row>
@@ -4297,23 +4297,23 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Store_148</t>
+          <t>Melbourne - Store 148</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Online</t>
+          <t>Physical</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E149" s="2" t="n">
-        <v>42323</v>
+        <v>42634</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Large</t>
+          <t>Medium</t>
         </is>
       </c>
     </row>
@@ -4323,23 +4323,23 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Store_149</t>
+          <t>Vancouver - Store 149</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Online</t>
+          <t>Physical</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E150" s="2" t="n">
-        <v>42323</v>
+        <v>40690</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Large</t>
+          <t>Medium</t>
         </is>
       </c>
     </row>
@@ -4349,7 +4349,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Store_150</t>
+          <t>San Francisco - Store 150</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -4358,10 +4358,10 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E151" s="2" t="n">
-        <v>42323</v>
+        <v>44164</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
@@ -4375,7 +4375,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Store_151</t>
+          <t>Toronto - Store 151</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -4384,10 +4384,10 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E152" s="2" t="n">
-        <v>42323</v>
+        <v>43067</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Store_152</t>
+          <t>Melbourne - Store 152</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -4413,7 +4413,7 @@
         <v>6</v>
       </c>
       <c r="E153" s="2" t="n">
-        <v>42323</v>
+        <v>41137</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
@@ -4427,7 +4427,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Store_153</t>
+          <t>Berlin - Store 153</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -4436,14 +4436,14 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E154" s="2" t="n">
-        <v>42323</v>
+        <v>41721</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Small</t>
+          <t>Medium</t>
         </is>
       </c>
     </row>
@@ -4453,7 +4453,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Store_154</t>
+          <t>Vancouver - Store 154</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -4462,14 +4462,14 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E155" s="2" t="n">
-        <v>42323</v>
+        <v>42437</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Small</t>
         </is>
       </c>
     </row>
@@ -4479,7 +4479,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Store_155</t>
+          <t>Melbourne - Store 155</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -4488,14 +4488,14 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E156" s="2" t="n">
-        <v>42323</v>
+        <v>41470</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Small</t>
+          <t>Large</t>
         </is>
       </c>
     </row>
@@ -4505,7 +4505,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Store_156</t>
+          <t>Chennai - Store 156</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -4514,10 +4514,10 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E157" s="2" t="n">
-        <v>42323</v>
+        <v>44012</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Store_157</t>
+          <t>Munich - Store 157</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -4540,14 +4540,14 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E158" s="2" t="n">
-        <v>42323</v>
+        <v>44742</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Small</t>
         </is>
       </c>
     </row>
@@ -4557,7 +4557,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Store_158</t>
+          <t>Berlin - Store 158</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -4566,14 +4566,14 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E159" s="2" t="n">
-        <v>42323</v>
+        <v>43741</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Small</t>
         </is>
       </c>
     </row>
@@ -4583,7 +4583,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Store_159</t>
+          <t>Toronto - Store 159</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -4595,7 +4595,7 @@
         <v>1</v>
       </c>
       <c r="E160" s="2" t="n">
-        <v>42323</v>
+        <v>41640</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
@@ -4609,7 +4609,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Store_160</t>
+          <t>Bangalore - Store 160</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -4618,14 +4618,14 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E161" s="2" t="n">
-        <v>42323</v>
+        <v>44768</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Small</t>
         </is>
       </c>
     </row>
@@ -4635,19 +4635,19 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Store_161</t>
+          <t>Vancouver - Store 161</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Physical</t>
+          <t>Online</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E162" s="2" t="n">
-        <v>42323</v>
+        <v>45024</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
@@ -4661,19 +4661,19 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Store_162</t>
+          <t>London - Store 162</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Online</t>
+          <t>Physical</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E163" s="2" t="n">
-        <v>42323</v>
+        <v>43128</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
@@ -4687,23 +4687,23 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Store_163</t>
+          <t>Sydney - Store 163</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Physical</t>
+          <t>Online</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E164" s="2" t="n">
-        <v>42323</v>
+        <v>43335</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Small</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Store_164</t>
+          <t>Munich - Store 164</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -4722,14 +4722,14 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E165" s="2" t="n">
-        <v>42323</v>
+        <v>40861</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Small</t>
+          <t>Large</t>
         </is>
       </c>
     </row>
@@ -4739,7 +4739,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Store_165</t>
+          <t>Hyderabad - Store 165</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -4748,14 +4748,14 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E166" s="2" t="n">
-        <v>42323</v>
+        <v>42292</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Large</t>
+          <t>Medium</t>
         </is>
       </c>
     </row>
@@ -4765,19 +4765,19 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Store_166</t>
+          <t>Mumbai - Store 166</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Physical</t>
+          <t>Online</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E167" s="2" t="n">
-        <v>42323</v>
+        <v>40726</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
@@ -4791,7 +4791,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Store_167</t>
+          <t>Hyderabad - Store 167</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -4800,14 +4800,14 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E168" s="2" t="n">
-        <v>42323</v>
+        <v>42063</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Large</t>
+          <t>Medium</t>
         </is>
       </c>
     </row>
@@ -4817,7 +4817,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Store_168</t>
+          <t>Mumbai - Store 168</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -4826,14 +4826,14 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E169" s="2" t="n">
-        <v>42323</v>
+        <v>45226</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Large</t>
+          <t>Small</t>
         </is>
       </c>
     </row>
@@ -4843,19 +4843,19 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Store_169</t>
+          <t>Berlin - Store 169</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Physical</t>
+          <t>Online</t>
         </is>
       </c>
       <c r="D170" t="n">
         <v>4</v>
       </c>
       <c r="E170" s="2" t="n">
-        <v>42323</v>
+        <v>42346</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -4869,19 +4869,19 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Store_170</t>
+          <t>Hyderabad - Store 170</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Physical</t>
+          <t>Online</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E171" s="2" t="n">
-        <v>42323</v>
+        <v>42082</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
@@ -4895,23 +4895,23 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Store_171</t>
+          <t>San Francisco - Store 171</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Physical</t>
+          <t>Online</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E172" s="2" t="n">
-        <v>42323</v>
+        <v>43009</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Large</t>
+          <t>Medium</t>
         </is>
       </c>
     </row>
@@ -4921,7 +4921,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Store_172</t>
+          <t>New York - Store 172</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -4930,14 +4930,14 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E173" s="2" t="n">
-        <v>42323</v>
+        <v>44500</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Large</t>
+          <t>Small</t>
         </is>
       </c>
     </row>
@@ -4947,23 +4947,23 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Store_173</t>
+          <t>Delhi - Store 173</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Physical</t>
+          <t>Online</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E174" s="2" t="n">
-        <v>42323</v>
+        <v>44926</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Small</t>
+          <t>Medium</t>
         </is>
       </c>
     </row>
@@ -4973,7 +4973,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Store_174</t>
+          <t>Manchester - Store 174</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -4982,14 +4982,14 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E175" s="2" t="n">
-        <v>42323</v>
+        <v>43008</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Large</t>
+          <t>Small</t>
         </is>
       </c>
     </row>
@@ -4999,19 +4999,19 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Store_175</t>
+          <t>Sydney - Store 175</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Online</t>
+          <t>Physical</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E176" s="2" t="n">
-        <v>42323</v>
+        <v>40376</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
@@ -5025,7 +5025,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Store_176</t>
+          <t>Vancouver - Store 176</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -5034,14 +5034,14 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E177" s="2" t="n">
-        <v>42323</v>
+        <v>43107</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Large</t>
+          <t>Small</t>
         </is>
       </c>
     </row>
@@ -5051,7 +5051,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Store_177</t>
+          <t>Vancouver - Store 177</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -5060,14 +5060,14 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E178" s="2" t="n">
-        <v>42323</v>
+        <v>43613</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Large</t>
         </is>
       </c>
     </row>
@@ -5077,19 +5077,19 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Store_178</t>
+          <t>Melbourne - Store 178</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Physical</t>
+          <t>Online</t>
         </is>
       </c>
       <c r="D179" t="n">
         <v>1</v>
       </c>
       <c r="E179" s="2" t="n">
-        <v>42323</v>
+        <v>45031</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
@@ -5103,7 +5103,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Store_179</t>
+          <t>Chicago - Store 179</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -5115,11 +5115,11 @@
         <v>2</v>
       </c>
       <c r="E180" s="2" t="n">
-        <v>42323</v>
+        <v>42585</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Small</t>
         </is>
       </c>
     </row>
@@ -5129,7 +5129,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Store_180</t>
+          <t>Mumbai - Store 180</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -5138,14 +5138,14 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E181" s="2" t="n">
-        <v>42323</v>
+        <v>41435</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Small</t>
         </is>
       </c>
     </row>
@@ -5155,7 +5155,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Store_181</t>
+          <t>London - Store 181</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -5164,14 +5164,14 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E182" s="2" t="n">
-        <v>42323</v>
+        <v>41708</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Large</t>
+          <t>Medium</t>
         </is>
       </c>
     </row>
@@ -5181,7 +5181,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Store_182</t>
+          <t>London - Store 182</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -5190,14 +5190,14 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E183" s="2" t="n">
-        <v>42323</v>
+        <v>41503</v>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Large</t>
+          <t>Small</t>
         </is>
       </c>
     </row>
@@ -5207,7 +5207,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Store_183</t>
+          <t>London - Store 183</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -5216,14 +5216,14 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E184" s="2" t="n">
-        <v>42323</v>
+        <v>43289</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Small</t>
         </is>
       </c>
     </row>
@@ -5233,23 +5233,23 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Store_184</t>
+          <t>Chicago - Store 184</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Physical</t>
+          <t>Online</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E185" s="2" t="n">
-        <v>42323</v>
+        <v>44538</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Small</t>
+          <t>Large</t>
         </is>
       </c>
     </row>
@@ -5259,7 +5259,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Store_185</t>
+          <t>Hyderabad - Store 185</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -5268,10 +5268,10 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E186" s="2" t="n">
-        <v>42323</v>
+        <v>41667</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
@@ -5285,7 +5285,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Store_186</t>
+          <t>Munich - Store 186</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -5294,10 +5294,10 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E187" s="2" t="n">
-        <v>42323</v>
+        <v>45107</v>
       </c>
       <c r="F187" t="inlineStr">
         <is>
@@ -5311,23 +5311,23 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Store_187</t>
+          <t>Hyderabad - Store 187</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Online</t>
+          <t>Physical</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E188" s="2" t="n">
-        <v>42323</v>
+        <v>44333</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Large</t>
         </is>
       </c>
     </row>
@@ -5337,7 +5337,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Store_188</t>
+          <t>London - Store 188</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -5346,14 +5346,14 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E189" s="2" t="n">
-        <v>42323</v>
+        <v>44338</v>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Large</t>
         </is>
       </c>
     </row>
@@ -5363,7 +5363,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Store_189</t>
+          <t>Sydney - Store 189</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -5372,10 +5372,10 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E190" s="2" t="n">
-        <v>42323</v>
+        <v>41663</v>
       </c>
       <c r="F190" t="inlineStr">
         <is>
@@ -5389,19 +5389,19 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Store_190</t>
+          <t>Munich - Store 190</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Physical</t>
+          <t>Online</t>
         </is>
       </c>
       <c r="D191" t="n">
         <v>4</v>
       </c>
       <c r="E191" s="2" t="n">
-        <v>42323</v>
+        <v>41532</v>
       </c>
       <c r="F191" t="inlineStr">
         <is>
@@ -5415,7 +5415,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Store_191</t>
+          <t>Vancouver - Store 191</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -5424,14 +5424,14 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E192" s="2" t="n">
-        <v>42323</v>
+        <v>41122</v>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Large</t>
         </is>
       </c>
     </row>
@@ -5441,19 +5441,19 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Store_192</t>
+          <t>London - Store 192</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Online</t>
+          <t>Physical</t>
         </is>
       </c>
       <c r="D193" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E193" s="2" t="n">
-        <v>42323</v>
+        <v>42504</v>
       </c>
       <c r="F193" t="inlineStr">
         <is>
@@ -5467,7 +5467,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Store_193</t>
+          <t>Delhi - Store 193</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -5479,11 +5479,11 @@
         <v>6</v>
       </c>
       <c r="E194" s="2" t="n">
-        <v>42323</v>
+        <v>40854</v>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>Large</t>
+          <t>Small</t>
         </is>
       </c>
     </row>
@@ -5493,7 +5493,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Store_194</t>
+          <t>Toronto - Store 194</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -5502,14 +5502,14 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E195" s="2" t="n">
-        <v>42323</v>
+        <v>41870</v>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Large</t>
+          <t>Medium</t>
         </is>
       </c>
     </row>
@@ -5519,7 +5519,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Store_195</t>
+          <t>Bangalore - Store 195</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -5528,10 +5528,10 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E196" s="2" t="n">
-        <v>42323</v>
+        <v>41747</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
@@ -5545,7 +5545,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Store_196</t>
+          <t>Berlin - Store 196</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -5554,14 +5554,14 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E197" s="2" t="n">
-        <v>42323</v>
+        <v>45289</v>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Small</t>
+          <t>Large</t>
         </is>
       </c>
     </row>
@@ -5571,7 +5571,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Store_197</t>
+          <t>Berlin - Store 197</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -5580,14 +5580,14 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E198" s="2" t="n">
-        <v>42323</v>
+        <v>41114</v>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Large</t>
         </is>
       </c>
     </row>
@@ -5597,7 +5597,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Store_198</t>
+          <t>Munich - Store 198</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -5609,7 +5609,7 @@
         <v>5</v>
       </c>
       <c r="E199" s="2" t="n">
-        <v>42323</v>
+        <v>43613</v>
       </c>
       <c r="F199" t="inlineStr">
         <is>
@@ -5623,7 +5623,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Store_199</t>
+          <t>London - Store 199</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -5632,10 +5632,10 @@
         </is>
       </c>
       <c r="D200" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E200" s="2" t="n">
-        <v>42323</v>
+        <v>40698</v>
       </c>
       <c r="F200" t="inlineStr">
         <is>
@@ -5649,7 +5649,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Store_200</t>
+          <t>Hyderabad - Store 200</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -5658,10 +5658,10 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E201" s="2" t="n">
-        <v>42323</v>
+        <v>44598</v>
       </c>
       <c r="F201" t="inlineStr">
         <is>
